--- a/meta/17-1-1.xlsx
+++ b/meta/17-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>17.1: Усилить мобилизацию ресурсов из внутренних источников, в том числе благодаря международной поддержке развивающихся стран, с тем чтобы повысить национальные возможности по сбору налогов и других доходов</t>
-  </si>
-  <si>
-    <t>17.1.1: Общий объем государственных доходов в процентном отношении к ВВП в разбивке по источникам</t>
   </si>
   <si>
     <t>Министерство финансов КР (Управление прогнозирования государственных доходов);
@@ -170,6 +167,9 @@
   <si>
     <t>Метаданные на сайте ООН - https://unstats.un.org/sdgs/metadata/
 Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>17.1.1 Общий объем государственных доходов в процентном отношении к ВВП в разбивке по источникам</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
